--- a/Python/lstm4_validation.xlsx
+++ b/Python/lstm4_validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhennongchen/Documents/GitHub/Synthesize_infarction_movie/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A5ED4B-1761-D44E-AF53-2BCE12328EF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462F9AB8-FAB3-7F41-BBE2-8BB0DFE10BD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="24140" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32500" yWindow="460" windowWidth="24140" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="792">
   <si>
     <t>movie_ID</t>
   </si>
@@ -2391,6 +2391,21 @@
   </si>
   <si>
     <t>accuracy</t>
+  </si>
+  <si>
+    <t>abnormal</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>prediction</t>
+  </si>
+  <si>
+    <t>sensitivity</t>
+  </si>
+  <si>
+    <t>specificity</t>
   </si>
 </sst>
 </file>
@@ -2414,7 +2429,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2422,12 +2437,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2769,7 +2800,7 @@
   <dimension ref="A1:I781"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D3" sqref="D3:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2806,9 +2837,13 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2820,13 +2855,15 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2840,21 +2877,21 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
         <f>COUNTIFS(B2:B781,"=0",C2:C781,"=0")</f>
         <v>241</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <f>COUNTIFS(B2:B781,"=0",C2:C781,"=1")</f>
         <v>19</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <f>COUNTIFS(B2:B781,"=0",C2:C781,"=2")</f>
         <v>0</v>
       </c>
@@ -2869,18 +2906,19 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <f>COUNTIFS(B2:B781,"=1",C2:C781,"=0")</f>
         <v>45</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <f>COUNTIFS(B2:B781,"=1",C2:C781,"=1")</f>
         <v>160</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <f>COUNTIFS(B2:B781,"=1",C2:C781,"=2")</f>
         <v>55</v>
       </c>
@@ -2895,18 +2933,19 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
         <f>COUNTIFS(B2:B781,"=2",C2:C781,"=0")</f>
         <v>15</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <f>COUNTIFS(B2:B781,"=2",C2:C781,"=1")</f>
         <v>37</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <f>COUNTIFS(B2:B781,"=2",C2:C781,"=2")</f>
         <v>208</v>
       </c>
@@ -2997,6 +3036,9 @@
       <c r="C13">
         <v>1</v>
       </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -3008,6 +3050,12 @@
       <c r="C14">
         <v>2</v>
       </c>
+      <c r="F14" t="s">
+        <v>787</v>
+      </c>
+      <c r="G14" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -3019,6 +3067,20 @@
       <c r="C15">
         <v>2</v>
       </c>
+      <c r="D15" t="s">
+        <v>789</v>
+      </c>
+      <c r="E15" t="s">
+        <v>787</v>
+      </c>
+      <c r="F15">
+        <f>COUNTIFS(B2:B781,"&gt;0",C2:C781,"&gt;0")</f>
+        <v>460</v>
+      </c>
+      <c r="G15">
+        <f>COUNTIFS(B2:B781,"=0",C2:C781,"&gt;0")</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -3030,8 +3092,19 @@
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>788</v>
+      </c>
+      <c r="F16">
+        <f>COUNTIFS(B2:B781,"&gt;0",C2:C781,"=0")</f>
+        <v>60</v>
+      </c>
+      <c r="G16">
+        <f>COUNTIFS(B2:B781,"=0",C2:C781,"=0")</f>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -3041,8 +3114,15 @@
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>784</v>
+      </c>
+      <c r="I17">
+        <f>(F15+G16)/(F15+G15+F16+G16)</f>
+        <v>0.89871794871794874</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -3052,8 +3132,15 @@
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>790</v>
+      </c>
+      <c r="I18">
+        <f>(F15)/(F15+F16)</f>
+        <v>0.88461538461538458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -3063,8 +3150,15 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>791</v>
+      </c>
+      <c r="I19">
+        <f>G16/(G16+G15)</f>
+        <v>0.92692307692307696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -3075,7 +3169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -3086,7 +3180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3097,7 +3191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -3108,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -3119,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3130,7 +3224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -3141,7 +3235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -3152,7 +3246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -3163,7 +3257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -3174,7 +3268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -3185,7 +3279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -3196,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
